--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4183235.123036016</v>
+        <v>4177513.51106813</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.882709511</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>376.9342628614961</v>
+        <v>344.4524256080903</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,16 +709,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>208.279329433658</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>168.7756050755994</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.09050805626379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>35.60539847200889</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>36.86740133315033</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>128.8382509449108</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>251.339567891213</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>179.8973065949188</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.675685265885</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.45797858609773</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292609</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396191</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>149.3690644377155</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590284</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143209</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.211838205613</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>192.9358339830521</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590284</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983823</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004747</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>81.42418085996493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.211838205613</v>
+        <v>217.0914199928478</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004746</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.769025331442</v>
+        <v>28.87187436015438</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>215.548481637604</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>63.65378420541664</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>35.19569619650027</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983823</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004747</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>140.7255191337736</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590284</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004747</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.211838205613</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>101.3208278811446</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>111.4423184859722</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>60.46248891391311</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>55.38124256042138</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>56.30623972477328</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292726</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>59.90320919298808</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>25.77887856691376</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>199.0193516333578</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004763</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>265.224061866362</v>
+        <v>139.432019288213</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1280.556556803303</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1280.556556803303</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>922.2908581965523</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>922.2908581965523</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F2" t="n">
-        <v>915.3453574473489</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>494.1501011631125</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>108.3618485648683</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2429.977864901261</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2098.91497755769</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1746.146322287575</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1746.146322287575</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>354.283994459117</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.984870679801</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.984870679801</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1127.304033684858</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>716.3181288952505</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347314</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347314</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.2978374347314</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749765</v>
@@ -5032,31 +5032,31 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.058578925876</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.590483597801</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
         <v>4405.689038432984</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.3589007221973</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="C13" t="n">
-        <v>409.481057855818</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>409.481057855818</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>409.481057855818</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>409.481057855818</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305368</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5199,52 +5199,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799872</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593985</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.789495593985</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>962.7999446959674</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.0073655524371</v>
+        <v>706.4876447660638</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>721.6132334414665</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1172.647446689875</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2151.197749519704</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N14" t="n">
-        <v>3130.950021746351</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>508.5026418377237</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C16" t="n">
-        <v>508.5026418377237</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>508.5026418377237</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553304</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553304</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.51300886223</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1784.266361528932</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1562.499746098458</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1273.396879224102</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V16" t="n">
-        <v>1018.712391018215</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W16" t="n">
-        <v>729.2952209812539</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X16" t="n">
-        <v>729.2952209812539</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y16" t="n">
-        <v>508.5026418377237</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>369.0989517407023</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>702.9183254305489</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1153.952538678958</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1687.484443350882</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577529</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,7 +5609,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902953</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>242.4509819463049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C19" t="n">
-        <v>242.4509819463049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5673,13 +5673,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1927.179956650002</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1705.413341219528</v>
       </c>
       <c r="U19" t="n">
-        <v>1235.3347702307</v>
+        <v>1416.310474345171</v>
       </c>
       <c r="V19" t="n">
-        <v>980.6502820248134</v>
+        <v>1161.625986139284</v>
       </c>
       <c r="W19" t="n">
-        <v>691.2331119878527</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X19" t="n">
-        <v>463.2435610898352</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y19" t="n">
-        <v>242.4509819463049</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>698.2036912151384</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9069394924953</v>
+        <v>131.1122427276876</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9069394924953</v>
+        <v>131.1122427276876</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101021</v>
+        <v>131.1122427276876</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121916</v>
+        <v>131.1122427276876</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121916</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.51300886223</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.51300886223</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431756</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.746393431756</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1390.061905225869</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>1100.644735188908</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>1100.644735188908</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.8521560453783</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175504</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>3027.596327402151</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3520.22625069276</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>3520.22625069276</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>3378.079261668747</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>3378.079261668747</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>3231.189314170836</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>3063.486477545555</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4688.221265177249</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>4466.454649746775</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>4177.351782872418</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>3922.667294666531</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>3922.667294666531</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>3922.667294666531</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3701.874715523</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>780.0246918018161</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600128</v>
+        <v>1231.058905050225</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2209.609207880053</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3741.01882983629</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C28" t="n">
-        <v>3572.082646908384</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D28" t="n">
-        <v>3421.966007496048</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>3274.052913913655</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>3127.162966415744</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4466.454649746774</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>4177.351782872417</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>3922.66729466653</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.66729466653</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>3922.66729466653</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.66729466653</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,49 +6466,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667298</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
@@ -6542,19 +6542,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3439.15248279391</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>3439.15248279391</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3439.15248279391</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3378.079261668745</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4466.454649746775</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4177.351782872418</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4177.351782872418</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>3887.934612835457</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>3659.94506193744</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>3439.15248279391</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1708.716932880599</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1419.614066006243</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.929577800356</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>875.5124077633956</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>875.5124077633956</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>654.7198286198654</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,34 +6937,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1364.144379432265</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>1897.67628410419</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,22 +7016,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902952</v>
@@ -7040,16 +7040,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>656.6259356382594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1899.468476483721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1610.365609609364</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1355.681121403477</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W37" t="n">
-        <v>1066.263951366516</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X37" t="n">
-        <v>838.2744004684992</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y37" t="n">
-        <v>838.2744004684992</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M38" t="n">
-        <v>2006.065164440651</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2985.817436667298</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7265,13 +7265,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>654.9300288380085</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C40" t="n">
-        <v>485.9938459101016</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D40" t="n">
-        <v>485.9938459101016</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="E40" t="n">
-        <v>485.9938459101016</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>156.0693265625238</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U40" t="n">
-        <v>1427.021237978873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1172.336749772986</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W40" t="n">
-        <v>882.9195797360259</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X40" t="n">
-        <v>654.9300288380085</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y40" t="n">
-        <v>654.9300288380085</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2996.062531649192</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
@@ -7493,16 +7493,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.517445238747</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C43" t="n">
-        <v>536.5812623108401</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D43" t="n">
-        <v>536.5812623108401</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E43" t="n">
-        <v>388.668168728447</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1443.716745317255</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W43" t="n">
-        <v>1154.299575280294</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X43" t="n">
-        <v>926.3100243822771</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y43" t="n">
-        <v>705.517445238747</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074186</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427163</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196069</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867991</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2985.817436667305</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996758</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353934</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193695</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320332</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454347</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7766,13 +7766,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3805104860112</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3805104860112</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862225</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689051</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258577</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.95764238422</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783336</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>641.3700613840285</v>
+        <v>858.2631878973651</v>
       </c>
       <c r="X46" t="n">
-        <v>413.3805104860112</v>
+        <v>630.2736369993478</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.3805104860112</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2173930448433</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>104.3976710547477</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>248.8400772687169</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.51392558917405</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>119.6706498956054</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>246.454569480845</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>229.1155640189926</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>163.3991441460099</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0304280898992</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>257.9017284501182</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>229.1155640189935</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M38" t="n">
-        <v>407.3126337606582</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>370.4516004729529</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>102.8529310510454</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>17.87775666091247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004747</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.77382140598505</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143209</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>108.3448444714771</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>69.12041821276512</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590284</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>160.8971509712875</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>70.66335656800902</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>103.5930368932113</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590284</v>
+        <v>130.8301120625279</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.211838205613</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>7.889953884438938</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983823</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.29464513706775</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.58348977305606</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>85.97147373265605</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>164.1677067157478</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>163.2427095513959</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>84.85180572133271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>260.4329596386991</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>53.11829169047022</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983829</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>21.29893647022902</v>
+        <v>147.090979048378</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612978.2587199848</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="F2" t="n">
         <v>794163.5737739662</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="H2" t="n">
+        <v>794163.5737739662</v>
+      </c>
+      <c r="I2" t="n">
+        <v>794163.5737739662</v>
+      </c>
+      <c r="J2" t="n">
+        <v>794163.5737739664</v>
+      </c>
+      <c r="K2" t="n">
         <v>794163.5737739663</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>794163.5737739662</v>
       </c>
-      <c r="H2" t="n">
-        <v>794163.5737739663</v>
-      </c>
-      <c r="I2" t="n">
-        <v>794163.5737739663</v>
-      </c>
-      <c r="J2" t="n">
-        <v>794163.5737739659</v>
-      </c>
-      <c r="K2" t="n">
-        <v>794163.5737739664</v>
-      </c>
-      <c r="L2" t="n">
-        <v>794163.5737739658</v>
-      </c>
       <c r="M2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="N2" t="n">
-        <v>794163.5737739664</v>
+        <v>794163.5737739665</v>
       </c>
       <c r="O2" t="n">
-        <v>794163.5737739665</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="P2" t="n">
         <v>794163.5737739663</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.546847158422069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,25 +26423,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918979</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918987</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26450,16 +26450,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231919012</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079896</v>
+        <v>-35133.87427079881</v>
       </c>
       <c r="C6" t="n">
-        <v>554834.0049437456</v>
+        <v>554834.0049437458</v>
       </c>
       <c r="D6" t="n">
-        <v>554834.0049437459</v>
+        <v>554834.0049437461</v>
       </c>
       <c r="E6" t="n">
-        <v>-47745.85079234384</v>
+        <v>-48417.80569460215</v>
       </c>
       <c r="F6" t="n">
-        <v>679631.5632010627</v>
+        <v>678959.608298805</v>
       </c>
       <c r="G6" t="n">
-        <v>679631.5632010625</v>
+        <v>678959.6082988046</v>
       </c>
       <c r="H6" t="n">
-        <v>679631.5632010628</v>
+        <v>678959.6082988047</v>
       </c>
       <c r="I6" t="n">
-        <v>679631.5632010627</v>
+        <v>678959.6082988047</v>
       </c>
       <c r="J6" t="n">
-        <v>503208.3440084695</v>
+        <v>502536.389106212</v>
       </c>
       <c r="K6" t="n">
-        <v>679631.5632010628</v>
+        <v>678959.6082988048</v>
       </c>
       <c r="L6" t="n">
-        <v>679631.5632010623</v>
+        <v>678959.6082988047</v>
       </c>
       <c r="M6" t="n">
-        <v>549989.2483621177</v>
+        <v>549317.2934598599</v>
       </c>
       <c r="N6" t="n">
-        <v>679631.5632010628</v>
+        <v>678959.6082988051</v>
       </c>
       <c r="O6" t="n">
-        <v>679631.563201063</v>
+        <v>678959.6082988046</v>
       </c>
       <c r="P6" t="n">
-        <v>679631.5632010649</v>
+        <v>678959.6082988048</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26974,34 +26974,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>-2.811398483088448e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.84990715929888</v>
+        <v>69.33174441270472</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.866209516360925</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>83.36203824822863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.7855376854477</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>215.6187690362804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>98.0982204591879</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.19685451317346</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>103.34347372947</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>233.8868634258762</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.15629491605227</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>198.2516768029394</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-9.500446406585477e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681583</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844653</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953976</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003791</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781674</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451114</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353272</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233455</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970232</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311873</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909881</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802161</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895875</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712186</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>631.8075074371754</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306608</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>441.5889576101482</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>801.1419126816281</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306608</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3009265578867</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509647</v>
+        <v>627.7236507838244</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306611</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>798.7564048937564</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306608</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>737.1685649072117</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306608</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>500.5904307014104</v>
       </c>
       <c r="L26" t="n">
-        <v>866.6205424822314</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>810.2035638630297</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>737.1685649072126</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>753.4190306414129</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M38" t="n">
-        <v>946.2337495908849</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>878.504601361172</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687113</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265633</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427802</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302242</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>655.1547664639542</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509621</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193697</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636226</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222387</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597637</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609682</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013271</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4177513.51106813</v>
+        <v>4180919.002192577</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7223856.707934683</v>
+        <v>7223856.707934682</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>344.4524256080903</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>118.8460297402134</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>208.279329433658</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>165.2066625923644</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>35.60539847200889</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>36.86740133315033</v>
+        <v>115.4685441446654</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3331719059337</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>179.8973065949188</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,19 +1183,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>159.9479264102627</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.45797858609773</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>6.38006817584717</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.9358339830521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.5937137318689</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>217.0914199928478</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>154.1856358179419</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.87187436015438</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.19569619650027</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.3208278811446</v>
+        <v>61.60385878691238</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>119.5944090572305</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479907</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292726</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>59.90320919298808</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>147.6651066504053</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>139.432019288213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.343073798764</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.380556858352</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>1352.114858251602</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E2" t="n">
-        <v>966.3266056533573</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F2" t="n">
-        <v>555.3407008637498</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>327.455452512359</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="T4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="U4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="V4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="W4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>234.7418026417376</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>220.8183985803285</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2429.977864901261</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2098.91497755769</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.146322287575</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,28 +4667,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.18278114677892</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C7" t="n">
-        <v>91.18278114677892</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D7" t="n">
-        <v>91.18278114677892</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E7" t="n">
-        <v>91.18278114677892</v>
+        <v>170.577874895784</v>
       </c>
       <c r="F7" t="n">
-        <v>91.18278114677892</v>
+        <v>170.577874895784</v>
       </c>
       <c r="G7" t="n">
-        <v>91.18278114677892</v>
+        <v>170.577874895784</v>
       </c>
       <c r="H7" t="n">
-        <v>91.18278114677892</v>
+        <v>170.577874895784</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770186</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770186</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>399.321470621679</v>
       </c>
       <c r="D8" t="n">
-        <v>1513.092286283102</v>
+        <v>399.321470621679</v>
       </c>
       <c r="E8" t="n">
-        <v>1127.304033684858</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>716.3181288952505</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113768</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,37 +5029,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>706.4876447660638</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C13" t="n">
-        <v>706.4876447660638</v>
+        <v>102.005547757331</v>
       </c>
       <c r="D13" t="n">
-        <v>556.371005353728</v>
+        <v>102.005547757331</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>102.005547757331</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>102.005547757331</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,22 +5214,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
         <v>1445.473983799873</v>
@@ -5238,13 +5238,13 @@
         <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X13" t="n">
-        <v>706.4876447660638</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.4876447660638</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888351</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
         <v>3297.750360443163</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.5269503710301</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C16" t="n">
-        <v>393.5907674431232</v>
+        <v>312.7607075579278</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>312.7607075579278</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>164.8476139755347</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.059203485665</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.374715279778</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.957545242817</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>964.9679943448</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.1754152012699</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001579</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3070.887536710052</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,7 +5597,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5606,40 +5606,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.7782212305366</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7782212305366</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.179956650002</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.413341219528</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.310474345171</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.625986139284</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W19" t="n">
-        <v>872.2088161023238</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X19" t="n">
-        <v>644.2192652043065</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.4266860607763</v>
+        <v>962.4856415333647</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1002.806306216376</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464784</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>300.0484256555945</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>131.1122427276876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>131.1122427276876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>131.1122427276876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>131.1122427276876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6968904858343</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -5995,46 +5995,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>780.0246918018161</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.058905050225</v>
+        <v>1732.058578925875</v>
       </c>
       <c r="M26" t="n">
-        <v>2209.609207880053</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N26" t="n">
-        <v>3189.3614801067</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O26" t="n">
         <v>3692.333950986037</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>492.7083461157126</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C28" t="n">
-        <v>492.7083461157126</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D28" t="n">
         <v>390.3640755286979</v>
@@ -6414,22 +6414,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894825</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3568109459524</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6490,25 +6490,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6791,7 +6791,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423041</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,34 +6934,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858343</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423041</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902952</v>
@@ -7277,16 +7277,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7083461157117</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>156.0693265625238</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894816</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.3568109459515</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686778</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1615.500908547282</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1326.398041672925</v>
       </c>
       <c r="V43" t="n">
-        <v>1956.343466104704</v>
+        <v>1071.713553467038</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.093193329805</v>
+        <v>782.2963834300775</v>
       </c>
       <c r="X43" t="n">
-        <v>1523.103642431788</v>
+        <v>782.2963834300775</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7727,10 +7727,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>858.2631878973651</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>630.2736369993478</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>409.4810578558177</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>248.8400772687169</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9175,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>119.6706498956054</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>219.3344627260167</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9643,10 +9643,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
-        <v>344.702583647683</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>163.3991441460099</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>345.3140082169162</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701128</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>159.6457400831811</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>32.77382140598505</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>76.82733429106234</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.12041821276512</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>25.64634436399544</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>160.8971509712875</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>130.8301120625279</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>47.29464513706775</v>
+        <v>87.01161423129997</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>132.5432342665975</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>91.26811680410414</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>84.85180572133271</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>71.88384262576386</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>147.090979048378</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>794163.5737739661</v>
       </c>
       <c r="F2" t="n">
+        <v>794163.5737739659</v>
+      </c>
+      <c r="G2" t="n">
         <v>794163.5737739662</v>
-      </c>
-      <c r="G2" t="n">
-        <v>794163.5737739661</v>
       </c>
       <c r="H2" t="n">
         <v>794163.5737739662</v>
       </c>
       <c r="I2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739663</v>
       </c>
       <c r="J2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="K2" t="n">
         <v>794163.5737739664</v>
       </c>
-      <c r="K2" t="n">
-        <v>794163.5737739663</v>
-      </c>
       <c r="L2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739664</v>
       </c>
       <c r="M2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="N2" t="n">
-        <v>794163.5737739665</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="O2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="P2" t="n">
         <v>794163.5737739663</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26426,37 +26426,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="O4" t="n">
         <v>18148.49231918995</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.4923191899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918993</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26490,25 +26490,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079881</v>
+        <v>-35133.87427079878</v>
       </c>
       <c r="C6" t="n">
-        <v>554834.0049437458</v>
+        <v>554834.0049437456</v>
       </c>
       <c r="D6" t="n">
-        <v>554834.0049437461</v>
+        <v>554834.0049437456</v>
       </c>
       <c r="E6" t="n">
-        <v>-48417.80569460215</v>
+        <v>-47813.04628256974</v>
       </c>
       <c r="F6" t="n">
-        <v>678959.608298805</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="G6" t="n">
-        <v>678959.6082988046</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="H6" t="n">
-        <v>678959.6082988047</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="I6" t="n">
-        <v>678959.6082988047</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="J6" t="n">
-        <v>502536.389106212</v>
+        <v>503141.1485182439</v>
       </c>
       <c r="K6" t="n">
-        <v>678959.6082988048</v>
+        <v>679564.3677108372</v>
       </c>
       <c r="L6" t="n">
-        <v>678959.6082988047</v>
+        <v>679564.3677108369</v>
       </c>
       <c r="M6" t="n">
-        <v>549317.2934598599</v>
+        <v>549922.052871892</v>
       </c>
       <c r="N6" t="n">
-        <v>678959.6082988051</v>
+        <v>679564.3677108367</v>
       </c>
       <c r="O6" t="n">
-        <v>678959.6082988046</v>
+        <v>679564.3677108367</v>
       </c>
       <c r="P6" t="n">
-        <v>678959.6082988048</v>
+        <v>679564.3677108369</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>69.33174441270472</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>205.0767430241438</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>3.866209516360925</v>
+        <v>160.0370983581564</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>158.7161101719927</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>215.6187690362804</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>98.0982204591879</v>
+        <v>19.49707764767285</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>212.5971981663281</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>233.8868634258762</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.88405377167459</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.2516768029394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,16 +28614,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.500446406585477e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>801.1419126816281</v>
+        <v>801.1419126816272</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>627.7236507838244</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>556.5257492814171</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
-        <v>883.6236994779098</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>500.5904307014104</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>800.9041226092484</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255132</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
